--- a/data/trans_dic/P42_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en ERTE o cese de actividad</t>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 32,53</t>
+          <t>0,87; 8,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,66</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,39</t>
+          <t>0,44; 4,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,06</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,45; 44,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 29,32</t>
+          <t>2,48; 11,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 15,42</t>
+          <t>0,65; 5,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,51</t>
+          <t>0,34; 3,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 33,58</t>
+          <t>0,38; 2,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,71</t>
+          <t>2,32; 7,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,55</t>
+          <t>0,88; 4,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 2,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 1,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 23,36</t>
+          <t>6,23; 16,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,93</t>
+          <t>2,12; 6,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,12</t>
+          <t>0,84; 3,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 7,03</t>
+          <t>0,84; 3,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,75; 34,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,71</t>
+          <t>4,47; 10,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,64</t>
+          <t>1,87; 5,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,24</t>
+          <t>0,85; 3,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,33</t>
+          <t>1,09; 3,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,3</t>
+          <t>5,97; 11,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,05</t>
+          <t>2,21; 5,14</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 2,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 2,73</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 23,49</t>
+          <t>3,57; 11,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 13,02</t>
+          <t>1,0; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,85</t>
+          <t>0,47; 2,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,2</t>
+          <t>0,46; 2,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,41</t>
+          <t>4,64; 11,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,52</t>
+          <t>1,88; 7,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,7</t>
+          <t>1,32; 4,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 18,85</t>
+          <t>1,39; 3,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,45</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,02</t>
+          <t>4,65; 9,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,86</t>
+          <t>1,78; 5,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 2,94</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 2,8</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,79</t>
+          <t>7,88; 13,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,98</t>
+          <t>4,01; 10,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,4</t>
+          <t>0,65; 4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 25,32</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,51</t>
+          <t>6,93; 10,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,76</t>
+          <t>3,64; 7,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,92</t>
+          <t>0,53; 3,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 22,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,81</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,4</t>
+          <t>7,87; 11,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,18</t>
+          <t>4,17; 8,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,1</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 11,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 6,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 2,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 2,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 9,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 5,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 2,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 2,62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 9,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 5,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 2,22</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,11</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6968</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4788</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15085</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9449</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8249</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9617</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22054</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15126</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16027</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14406</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1981; 18391</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18373</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2317; 22117</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17624</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6481; 30392</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2723; 23522</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2165; 21361</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3379; 21259</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11311; 38684</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6692; 33103</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6339; 32269</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6064; 29721</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62663</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33631</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21615</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27514</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47200</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33084</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20246</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29302</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109863</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>66715</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41862</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>56816</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40298; 105356</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19708; 57132</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10154; 40142</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13582; 55039</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31885; 71663</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18634; 56176</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10508; 38241</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16383; 48068</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>81268; 153660</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42558; 99003</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>25502; 66599</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>37662; 85486</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28211</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17269</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10843</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12753</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39864</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27187</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23209</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28216</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>68074</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44456</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34053</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>40969</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16167; 50329</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7145; 35827</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3940; 25309</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4977; 26147</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24504; 61891</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14397; 55530</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12437; 41381</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16135; 46314</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10368</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45644; 95946</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26298; 74020</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19345; 52634</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>26047; 63106</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11236</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>210317</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>92437</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15195</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>179407</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71533</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11653</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>389723</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>163970</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>26848</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5470</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>165571; 274707</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58200; 156456</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5589; 35320</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12443</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>144039; 223858</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51055; 106211</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4021; 27342</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17563</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>328907; 466264</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>118884; 233415</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>13141; 50270</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0; 18369</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>308158</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>149015</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55432</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>45055</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>281556</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>141253</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>63357</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67136</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4985</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>589714</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>290268</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>118789</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>112191</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>7489</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>251464; 382098</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105151; 218292</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34850; 82483</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27719; 72364</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12596</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>231122; 337492</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>106812; 189286</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>43063; 90134</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>46683; 93368</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 18417</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>508706; 677702</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>232368; 365886</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>89657; 155944</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>83750; 147766</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2019; 19763</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
